--- a/src/test/resources/testdata/SauceDemoTestData.xlsx
+++ b/src/test/resources/testdata/SauceDemoTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Project\selenium-saucedemo-automation\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D55A0B-A729-4EBA-9552-2EE7913C34AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D484AE0-5262-4BEB-B458-B6543EC863C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C6D7014D-08AE-476C-BFAA-73A02DD08FB1}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>username</t>
   </si>
@@ -60,12 +60,6 @@
     <t>wrong_password</t>
   </si>
   <si>
-    <t>invalid_user</t>
-  </si>
-  <si>
-    <t>invalid_password</t>
-  </si>
-  <si>
     <t>Item</t>
   </si>
   <si>
@@ -109,6 +103,24 @@
   </si>
   <si>
     <t>This classic Sauce Labs t-shirt is perfect to wear when cozying up to your keyboard to automate a few tests. Super-soft and comfy ringspun combed cotton.</t>
+  </si>
+  <si>
+    <t>problem_user</t>
+  </si>
+  <si>
+    <t>performance_glitch_user</t>
+  </si>
+  <si>
+    <t>error_user</t>
+  </si>
+  <si>
+    <t>visual_user</t>
+  </si>
+  <si>
+    <t>Not in list</t>
+  </si>
+  <si>
+    <t>This is a sample that is not included in the webpage</t>
   </si>
 </sst>
 </file>
@@ -484,13 +496,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06DD23D1-68C3-49B2-A891-99EA8CC28B15}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -538,13 +554,54 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -554,10 +611,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786E3B86-3E56-424A-AF74-31C3B861D12A}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,79 +624,90 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1">
         <v>29.99</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1">
         <v>9.99</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1">
         <v>15.99</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1">
         <v>49.99</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1">
         <v>7.99</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1">
         <v>15.99</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="1">
+        <v>15.99</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/SauceDemoTestData.xlsx
+++ b/src/test/resources/testdata/SauceDemoTestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Project\selenium-saucedemo-automation\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D484AE0-5262-4BEB-B458-B6543EC863C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A9CEE6-D048-48D4-8D3A-9CBA0DBFED3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C6D7014D-08AE-476C-BFAA-73A02DD08FB1}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C6D7014D-08AE-476C-BFAA-73A02DD08FB1}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>username</t>
   </si>
@@ -115,12 +115,6 @@
   </si>
   <si>
     <t>visual_user</t>
-  </si>
-  <si>
-    <t>Not in list</t>
-  </si>
-  <si>
-    <t>This is a sample that is not included in the webpage</t>
   </si>
 </sst>
 </file>
@@ -496,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06DD23D1-68C3-49B2-A891-99EA8CC28B15}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,14 +590,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="b">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -611,10 +597,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786E3B86-3E56-424A-AF74-31C3B861D12A}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,17 +685,6 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="1">
-        <v>15.99</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
